--- a/public/패킹양식1.xlsx
+++ b/public/패킹양식1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OK\Desktop\잡동사니\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OK\Documents\b2b-main\b2b-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBF4F8-9C91-4E36-9DFC-6EB1881A5C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BCC29C-A309-439B-A99C-7C52F0B7069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,13 +930,13 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2638,6 +2638,1706 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="33"/>
     </row>
+    <row r="84" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="33"/>
+    </row>
+    <row r="85" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="33"/>
+    </row>
+    <row r="86" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="33"/>
+    </row>
+    <row r="87" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="33"/>
+    </row>
+    <row r="88" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="33"/>
+    </row>
+    <row r="89" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="33"/>
+    </row>
+    <row r="90" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="33"/>
+    </row>
+    <row r="91" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="33"/>
+    </row>
+    <row r="92" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="33"/>
+    </row>
+    <row r="93" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="33"/>
+    </row>
+    <row r="94" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="33"/>
+    </row>
+    <row r="95" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="33"/>
+    </row>
+    <row r="96" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="33"/>
+    </row>
+    <row r="97" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="33"/>
+    </row>
+    <row r="98" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="33"/>
+    </row>
+    <row r="99" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="33"/>
+    </row>
+    <row r="100" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="33"/>
+    </row>
+    <row r="101" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="33"/>
+    </row>
+    <row r="102" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="33"/>
+    </row>
+    <row r="103" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="33"/>
+    </row>
+    <row r="104" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="33"/>
+    </row>
+    <row r="105" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="33"/>
+    </row>
+    <row r="106" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="33"/>
+    </row>
+    <row r="107" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="33"/>
+    </row>
+    <row r="108" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="33"/>
+    </row>
+    <row r="109" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="33"/>
+    </row>
+    <row r="110" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="33"/>
+    </row>
+    <row r="111" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="30"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="33"/>
+    </row>
+    <row r="112" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="33"/>
+    </row>
+    <row r="113" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="33"/>
+    </row>
+    <row r="114" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="33"/>
+    </row>
+    <row r="115" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="33"/>
+    </row>
+    <row r="116" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="33"/>
+    </row>
+    <row r="117" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="33"/>
+    </row>
+    <row r="118" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="30"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="33"/>
+    </row>
+    <row r="119" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="28"/>
+      <c r="N119" s="28"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="33"/>
+    </row>
+    <row r="120" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="30"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="33"/>
+    </row>
+    <row r="121" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="28"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="30"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="33"/>
+    </row>
+    <row r="122" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="28"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="33"/>
+    </row>
+    <row r="123" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="28"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="30"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="33"/>
+    </row>
+    <row r="124" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="28"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="33"/>
+    </row>
+    <row r="125" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="33"/>
+    </row>
+    <row r="126" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="33"/>
+    </row>
+    <row r="127" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="30"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="33"/>
+    </row>
+    <row r="128" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="28"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="28"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="30"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="33"/>
+    </row>
+    <row r="129" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="28"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="33"/>
+    </row>
+    <row r="130" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="33"/>
+    </row>
+    <row r="131" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="28"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="30"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="33"/>
+    </row>
+    <row r="132" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="28"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="30"/>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="33"/>
+    </row>
+    <row r="133" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="33"/>
+    </row>
+    <row r="134" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="28"/>
+      <c r="M134" s="28"/>
+      <c r="N134" s="28"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="33"/>
+    </row>
+    <row r="135" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="33"/>
+    </row>
+    <row r="136" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="28"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="33"/>
+    </row>
+    <row r="137" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="28"/>
+      <c r="M137" s="28"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="33"/>
+    </row>
+    <row r="138" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="28"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="28"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="33"/>
+    </row>
+    <row r="139" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
+      <c r="O139" s="29"/>
+      <c r="P139" s="30"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="33"/>
+    </row>
+    <row r="140" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="13"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
+      <c r="O140" s="29"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="33"/>
+    </row>
+    <row r="141" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="30"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="33"/>
+    </row>
+    <row r="142" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="13"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="30"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="33"/>
+    </row>
+    <row r="143" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="30"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="33"/>
+    </row>
+    <row r="144" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="13"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="28"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="33"/>
+    </row>
+    <row r="145" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="28"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="30"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="33"/>
+    </row>
+    <row r="146" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="13"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="28"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="30"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="33"/>
+    </row>
+    <row r="147" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="28"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="30"/>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="33"/>
+    </row>
+    <row r="148" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="13"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="30"/>
+      <c r="Q148" s="22"/>
+      <c r="R148" s="33"/>
+    </row>
+    <row r="149" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="28"/>
+      <c r="M149" s="28"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="30"/>
+      <c r="Q149" s="22"/>
+      <c r="R149" s="33"/>
+    </row>
+    <row r="150" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="30"/>
+      <c r="Q150" s="22"/>
+      <c r="R150" s="33"/>
+    </row>
+    <row r="151" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="30"/>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="33"/>
+    </row>
+    <row r="152" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="30"/>
+      <c r="Q152" s="22"/>
+      <c r="R152" s="33"/>
+    </row>
+    <row r="153" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="30"/>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="33"/>
+    </row>
+    <row r="154" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="30"/>
+      <c r="Q154" s="22"/>
+      <c r="R154" s="33"/>
+    </row>
+    <row r="155" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="28"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="30"/>
+      <c r="Q155" s="22"/>
+      <c r="R155" s="33"/>
+    </row>
+    <row r="156" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="30"/>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="33"/>
+    </row>
+    <row r="157" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="30"/>
+      <c r="Q157" s="22"/>
+      <c r="R157" s="33"/>
+    </row>
+    <row r="158" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="29"/>
+      <c r="P158" s="30"/>
+      <c r="Q158" s="22"/>
+      <c r="R158" s="33"/>
+    </row>
+    <row r="159" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="28"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="30"/>
+      <c r="Q159" s="22"/>
+      <c r="R159" s="33"/>
+    </row>
+    <row r="160" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="22"/>
+      <c r="R160" s="33"/>
+    </row>
+    <row r="161" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="30"/>
+      <c r="Q161" s="22"/>
+      <c r="R161" s="33"/>
+    </row>
+    <row r="162" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="30"/>
+      <c r="Q162" s="22"/>
+      <c r="R162" s="33"/>
+    </row>
+    <row r="163" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="30"/>
+      <c r="Q163" s="22"/>
+      <c r="R163" s="33"/>
+    </row>
+    <row r="164" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="13"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="30"/>
+      <c r="Q164" s="22"/>
+      <c r="R164" s="33"/>
+    </row>
+    <row r="165" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="30"/>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="33"/>
+    </row>
+    <row r="166" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="30"/>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="33"/>
+    </row>
+    <row r="167" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="30"/>
+      <c r="Q167" s="22"/>
+      <c r="R167" s="33"/>
+    </row>
+    <row r="168" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="13"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="30"/>
+      <c r="Q168" s="22"/>
+      <c r="R168" s="33"/>
+    </row>
   </sheetData>
   <autoFilter ref="A5:R5" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:R30">
